--- a/templates/sjel-ewmi.xlsx
+++ b/templates/sjel-ewmi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\SchoolRanker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FE414B-5962-4244-8840-5A1FC851D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EDD991-44AA-4C9B-BE59-BC12A9FDC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,15 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,24 +303,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -651,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H47"/>
+  <dimension ref="B2:H48"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,43 +693,43 @@
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -710,371 +739,371 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,16 +1112,20 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:E4"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1100,6 +1133,11 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
